--- a/public/upload/01Templatever3.xlsx
+++ b/public/upload/01Templatever3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,19 +81,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,9 +96,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="8.8000000000000007"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -305,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -313,9 +320,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -325,12 +329,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -338,82 +384,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,6 +516,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -543,6 +568,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -721,183 +763,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="78.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="78.5703125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1">
+      <c r="B1" s="22">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="22">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="22">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="22">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="22">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="25" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="19"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="19"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="19"/>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="19"/>
-      <c r="I7"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="32"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="19"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="19"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="19"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="19"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="19"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="19"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="24"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -909,1846 +952,1831 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="10" customWidth="1"/>
-    <col min="3" max="5" width="11.5703125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="5" style="9" customWidth="1"/>
-    <col min="8" max="11" width="11.5703125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="28" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="5" style="6" customWidth="1"/>
+    <col min="8" max="11" width="11.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38">
+      <c r="A1" s="21">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="e">
+      <c r="C1" s="18" t="e">
         <f>VLOOKUP(IN!A1,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="25" t="e">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="8" t="e">
         <f>VLOOKUP(IN!A1,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G1" s="35">
-        <v>11</v>
+      <c r="G1" s="17">
+        <f>MAX($A:$A)+1</f>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="34" t="e">
+      <c r="I1" s="18" t="e">
         <f>VLOOKUP(IN!G1,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="25" t="e">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="8" t="e">
         <f>VLOOKUP(IN!G1,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="e">
+      <c r="C2" s="5" t="e">
         <f>VLOOKUP(IN!A1,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="35"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="29" t="e">
+      <c r="I2" s="12" t="e">
         <f>VLOOKUP(IN!G1,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36" t="e">
+      <c r="C3" s="19" t="e">
         <f>VLOOKUP(IN!A1,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="35"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="36" t="e">
+      <c r="I3" s="19" t="e">
         <f>VLOOKUP(IN!G1,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="38"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="35"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="35"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="36" t="e">
+      <c r="C6" s="19" t="e">
         <f>VLOOKUP(IN!A1,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="36" t="e">
+      <c r="I6" s="19" t="e">
         <f>VLOOKUP(IN!G1,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="36" t="e">
+      <c r="C7" s="19" t="e">
         <f>VLOOKUP(IN!A1,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="35"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="36" t="e">
+      <c r="I7" s="19" t="e">
         <f>VLOOKUP(IN!G1,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="16">
         <f ca="1">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="4" t="s">
+        <v>43024</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="16">
         <f ca="1">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+        <v>43024</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <f>A1+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="34" t="e">
+      <c r="C10" s="18" t="e">
         <f>VLOOKUP(IN!A10,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="25" t="e">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="8" t="e">
         <f>VLOOKUP(IN!A10,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="17">
         <f>G1+1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="34" t="e">
+      <c r="I10" s="18" t="e">
         <f>VLOOKUP(IN!G10,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="25" t="e">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="8" t="e">
         <f>VLOOKUP(IN!G10,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="29" t="e">
+      <c r="C11" s="12" t="e">
         <f>VLOOKUP(IN!A10,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="29" t="e">
+      <c r="I11" s="12" t="e">
         <f>VLOOKUP(IN!G10,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="26"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="36" t="e">
+      <c r="C12" s="19" t="e">
         <f>VLOOKUP(IN!A10,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="35"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="36" t="e">
+      <c r="I12" s="19" t="e">
         <f>VLOOKUP(IN!G10,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="35"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="35"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="36" t="e">
+      <c r="C15" s="19" t="e">
         <f>VLOOKUP(IN!A10,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="17"/>
       <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="36" t="e">
+      <c r="I15" s="19" t="e">
         <f>VLOOKUP(IN!G10,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="36" t="e">
+      <c r="C16" s="19" t="e">
         <f>VLOOKUP(IN!A10,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="36" t="e">
+      <c r="I16" s="19" t="e">
         <f>VLOOKUP(IN!G10,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="35"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="17"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="16">
         <f ca="1">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="4" t="s">
+        <v>43024</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="16">
         <f ca="1">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+        <v>43024</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="A19" s="13">
         <f t="shared" ref="A19" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="34" t="e">
+      <c r="C19" s="18" t="e">
         <f>VLOOKUP(IN!A19,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="25" t="e">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="8" t="e">
         <f>VLOOKUP(IN!A19,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="17">
         <f t="shared" ref="G19" si="1">G10+1</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I19" s="34" t="e">
+      <c r="I19" s="18" t="e">
         <f>VLOOKUP(IN!G19,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="25" t="e">
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="8" t="e">
         <f>VLOOKUP(IN!G19,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="29" t="e">
+      <c r="C20" s="12" t="e">
         <f>VLOOKUP(IN!A19,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="35"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="29" t="e">
+      <c r="I20" s="12" t="e">
         <f>VLOOKUP(IN!G19,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="36" t="e">
+      <c r="C21" s="19" t="e">
         <f>VLOOKUP(IN!A19,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="35"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="36" t="e">
+      <c r="I21" s="19" t="e">
         <f>VLOOKUP(IN!G19,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="35"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="36" t="e">
+      <c r="C24" s="19" t="e">
         <f>VLOOKUP(IN!A19,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="35"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="36" t="e">
+      <c r="I24" s="19" t="e">
         <f>VLOOKUP(IN!G19,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="36" t="e">
+      <c r="C25" s="19" t="e">
         <f>VLOOKUP(IN!A19,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="35"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="36" t="e">
+      <c r="I25" s="19" t="e">
         <f>VLOOKUP(IN!G19,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="35"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
     </row>
     <row r="27" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="16">
         <f t="shared" ref="C27" ca="1" si="2">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="4" t="s">
+        <v>43024</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="16">
         <f t="shared" ref="I27" ca="1" si="3">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
+        <v>43024</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30">
+      <c r="A28" s="13">
         <f t="shared" ref="A28" si="4">A19+1</f>
         <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="34" t="e">
+      <c r="C28" s="18" t="e">
         <f>VLOOKUP(IN!A28,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="25" t="e">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="8" t="e">
         <f>VLOOKUP(IN!A28,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="17">
         <f t="shared" ref="G28" si="5">G19+1</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="34" t="e">
+      <c r="I28" s="18" t="e">
         <f>VLOOKUP(IN!G28,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="25" t="e">
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="8" t="e">
         <f>VLOOKUP(IN!G28,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="29" t="e">
+      <c r="C29" s="12" t="e">
         <f>VLOOKUP(IN!A28,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="35"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I29" s="29" t="e">
+      <c r="I29" s="12" t="e">
         <f>VLOOKUP(IN!G28,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="26"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="36" t="e">
+      <c r="C30" s="19" t="e">
         <f>VLOOKUP(IN!A28,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="35"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I30" s="36" t="e">
+      <c r="I30" s="19" t="e">
         <f>VLOOKUP(IN!G28,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="35"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="35"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="36" t="e">
+      <c r="C33" s="19" t="e">
         <f>VLOOKUP(IN!A28,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="35"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="36" t="e">
+      <c r="I33" s="19" t="e">
         <f>VLOOKUP(IN!G28,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="30"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="36" t="e">
+      <c r="C34" s="19" t="e">
         <f>VLOOKUP(IN!A28,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="35"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="36" t="e">
+      <c r="I34" s="19" t="e">
         <f>VLOOKUP(IN!G28,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="37"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="35"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="37"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="16">
         <f t="shared" ref="C36" ca="1" si="6">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="4" t="s">
+        <v>43024</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="16">
         <f t="shared" ref="I36" ca="1" si="7">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="32"/>
+        <v>43024</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="30">
+      <c r="A37" s="13">
         <f t="shared" ref="A37" si="8">A28+1</f>
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="34" t="e">
+      <c r="C37" s="18" t="e">
         <f>VLOOKUP(IN!A37,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="25" t="e">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="8" t="e">
         <f>VLOOKUP(IN!A37,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="17">
         <f t="shared" ref="G37" si="9">G28+1</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I37" s="34" t="e">
+      <c r="I37" s="18" t="e">
         <f>VLOOKUP(IN!G37,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="25" t="e">
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="8" t="e">
         <f>VLOOKUP(IN!G37,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="30"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="29" t="e">
+      <c r="C38" s="12" t="e">
         <f>VLOOKUP(IN!A37,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="35"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="29" t="e">
+      <c r="I38" s="12" t="e">
         <f>VLOOKUP(IN!G37,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="26"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="9"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="30"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="36" t="e">
+      <c r="C39" s="19" t="e">
         <f>VLOOKUP(IN!A37,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="35"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="36" t="e">
+      <c r="I39" s="19" t="e">
         <f>VLOOKUP(IN!G37,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="35"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="37"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="35"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="37"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="36" t="e">
+      <c r="C42" s="19" t="e">
         <f>VLOOKUP(IN!A37,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D42" s="36"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="35"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="36" t="e">
+      <c r="I42" s="19" t="e">
         <f>VLOOKUP(IN!G37,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="37"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="36" t="e">
+      <c r="C43" s="19" t="e">
         <f>VLOOKUP(IN!A37,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="35"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="36" t="e">
+      <c r="I43" s="19" t="e">
         <f>VLOOKUP(IN!G37,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="37"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="35"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="37"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="16">
         <f t="shared" ref="C45" ca="1" si="10">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="4" t="s">
+        <v>43024</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="33">
+      <c r="I45" s="16">
         <f t="shared" ref="I45" ca="1" si="11">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="32"/>
+        <v>43024</v>
+      </c>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="15"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
+      <c r="A46" s="13">
         <f t="shared" ref="A46" si="12">A37+1</f>
         <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="34" t="e">
+      <c r="C46" s="18" t="e">
         <f>VLOOKUP(IN!A46,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="25" t="e">
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="8" t="e">
         <f>VLOOKUP(IN!A46,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G46" s="35">
+      <c r="G46" s="17">
         <f t="shared" ref="G46" si="13">G37+1</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I46" s="34" t="e">
+      <c r="I46" s="18" t="e">
         <f>VLOOKUP(IN!G46,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="25" t="e">
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="8" t="e">
         <f>VLOOKUP(IN!G46,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="30"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="29" t="e">
+      <c r="C47" s="12" t="e">
         <f>VLOOKUP(IN!A46,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="35"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I47" s="29" t="e">
+      <c r="I47" s="12" t="e">
         <f>VLOOKUP(IN!G46,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="26"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="36" t="e">
+      <c r="C48" s="19" t="e">
         <f>VLOOKUP(IN!A46,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="35"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I48" s="36" t="e">
+      <c r="I48" s="19" t="e">
         <f>VLOOKUP(IN!G46,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="37"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="20"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="30"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="35"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="17"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="37"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
     </row>
     <row r="50" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="30"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="35"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="37"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="36" t="e">
+      <c r="C51" s="19" t="e">
         <f>VLOOKUP(IN!A46,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="35"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="36" t="e">
+      <c r="I51" s="19" t="e">
         <f>VLOOKUP(IN!G46,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="37"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
     </row>
     <row r="52" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="30"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="36" t="e">
+      <c r="C52" s="19" t="e">
         <f>VLOOKUP(IN!A46,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="35"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="36" t="e">
+      <c r="I52" s="19" t="e">
         <f>VLOOKUP(IN!G46,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="37"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="30"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="35"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="2"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="37"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="20"/>
     </row>
     <row r="54" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="4" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="16">
         <f t="shared" ref="C54" ca="1" si="14">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="4" t="s">
+        <v>43024</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="33">
+      <c r="I54" s="16">
         <f t="shared" ref="I54" ca="1" si="15">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="32"/>
+        <v>43024</v>
+      </c>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="15"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="30">
+      <c r="A55" s="13">
         <f t="shared" ref="A55" si="16">A46+1</f>
         <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="34" t="e">
+      <c r="C55" s="18" t="e">
         <f>VLOOKUP(IN!A55,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="25" t="e">
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="8" t="e">
         <f>VLOOKUP(IN!A55,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G55" s="35">
+      <c r="G55" s="17">
         <f t="shared" ref="G55" si="17">G46+1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I55" s="34" t="e">
+      <c r="I55" s="18" t="e">
         <f>VLOOKUP(IN!G55,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="25" t="e">
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="8" t="e">
         <f>VLOOKUP(IN!G55,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="29" t="e">
+      <c r="C56" s="12" t="e">
         <f>VLOOKUP(IN!A55,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="35"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="17"/>
       <c r="H56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I56" s="29" t="e">
+      <c r="I56" s="12" t="e">
         <f>VLOOKUP(IN!G55,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="26"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="30"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="36" t="e">
+      <c r="C57" s="19" t="e">
         <f>VLOOKUP(IN!A55,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="35"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I57" s="36" t="e">
+      <c r="I57" s="19" t="e">
         <f>VLOOKUP(IN!G55,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="37"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="30"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="35"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="37"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="20"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="30"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="35"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="17"/>
       <c r="H59" s="2"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="37"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="20"/>
     </row>
     <row r="60" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="36" t="e">
+      <c r="C60" s="19" t="e">
         <f>VLOOKUP(IN!A55,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="35"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="17"/>
       <c r="H60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="36" t="e">
+      <c r="I60" s="19" t="e">
         <f>VLOOKUP(IN!G55,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="37"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="20"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="30"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="36" t="e">
+      <c r="C61" s="19" t="e">
         <f>VLOOKUP(IN!A55,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="35"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="36" t="e">
+      <c r="I61" s="19" t="e">
         <f>VLOOKUP(IN!G55,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="37"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="20"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="30"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="35"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="37"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="20"/>
     </row>
     <row r="63" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="4" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="16">
         <f t="shared" ref="C63" ca="1" si="18">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="4" t="s">
+        <v>43024</v>
+      </c>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="16">
         <f t="shared" ref="I63" ca="1" si="19">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="32"/>
+        <v>43024</v>
+      </c>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="15"/>
     </row>
     <row r="64" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="30">
+      <c r="A64" s="13">
         <f t="shared" ref="A64" si="20">A55+1</f>
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="34" t="e">
+      <c r="C64" s="18" t="e">
         <f>VLOOKUP(IN!A64,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="25" t="e">
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="8" t="e">
         <f>VLOOKUP(IN!A64,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G64" s="35">
+      <c r="G64" s="17">
         <f t="shared" ref="G64" si="21">G55+1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I64" s="34" t="e">
+      <c r="I64" s="18" t="e">
         <f>VLOOKUP(IN!G64,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="25" t="e">
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="8" t="e">
         <f>VLOOKUP(IN!G64,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A65" s="30"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="29" t="e">
+      <c r="C65" s="12" t="e">
         <f>VLOOKUP(IN!A64,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="35"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I65" s="29" t="e">
+      <c r="I65" s="12" t="e">
         <f>VLOOKUP(IN!G64,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="26"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="9"/>
     </row>
     <row r="66" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="36" t="e">
+      <c r="C66" s="19" t="e">
         <f>VLOOKUP(IN!A64,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="35"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="17"/>
       <c r="H66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I66" s="36" t="e">
+      <c r="I66" s="19" t="e">
         <f>VLOOKUP(IN!G64,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="37"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="20"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A67" s="30"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="35"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="37"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="20"/>
     </row>
     <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="30"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="35"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="17"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="37"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="20"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="30"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="36" t="e">
+      <c r="C69" s="19" t="e">
         <f>VLOOKUP(IN!A64,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D69" s="36"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="35"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I69" s="36" t="e">
+      <c r="I69" s="19" t="e">
         <f>VLOOKUP(IN!G64,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="37"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="36" t="e">
+      <c r="C70" s="19" t="e">
         <f>VLOOKUP(IN!A64,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="35"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="17"/>
       <c r="H70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I70" s="36" t="e">
+      <c r="I70" s="19" t="e">
         <f>VLOOKUP(IN!G64,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="37"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="20"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A71" s="30"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="35"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="37"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="20"/>
     </row>
     <row r="72" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="4" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="16">
         <f t="shared" ref="C72" ca="1" si="22">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="4" t="s">
+        <v>43024</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I72" s="33">
+      <c r="I72" s="16">
         <f t="shared" ref="I72" ca="1" si="23">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="J72" s="31"/>
-      <c r="K72" s="31"/>
-      <c r="L72" s="32"/>
+        <v>43024</v>
+      </c>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="15"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="30">
+      <c r="A73" s="13">
         <f t="shared" ref="A73" si="24">A64+1</f>
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="34" t="e">
+      <c r="C73" s="18" t="e">
         <f>VLOOKUP(IN!A73,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="25" t="e">
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="8" t="e">
         <f>VLOOKUP(IN!A73,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G73" s="35">
+      <c r="G73" s="17">
         <f t="shared" ref="G73" si="25">G64+1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I73" s="34" t="e">
+      <c r="I73" s="18" t="e">
         <f>VLOOKUP(IN!G73,'Danh sách'!$A:$G,'Danh sách'!$C$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="25" t="e">
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="8" t="e">
         <f>VLOOKUP(IN!G73,'Danh sách'!$A:$G,'Danh sách'!$B$1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="30"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="29" t="e">
+      <c r="C74" s="12" t="e">
         <f>VLOOKUP(IN!A73,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="35"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I74" s="29" t="e">
+      <c r="I74" s="12" t="e">
         <f>VLOOKUP(IN!G73,'Danh sách'!$A:$G,'Danh sách'!$D$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="26"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="9"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="30"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="36" t="e">
+      <c r="C75" s="19" t="e">
         <f>VLOOKUP(IN!A73,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="35"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="17"/>
       <c r="H75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I75" s="36" t="e">
+      <c r="I75" s="19" t="e">
         <f>VLOOKUP(IN!G73,'Danh sách'!$A:$G,'Danh sách'!$E$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
-      <c r="L75" s="37"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="20"/>
     </row>
     <row r="76" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="30"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="35"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="37"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="20"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="30"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="35"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="37"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="20"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="30"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="36" t="e">
+      <c r="C78" s="19" t="e">
         <f>VLOOKUP(IN!A73,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="35"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="17"/>
       <c r="H78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="36" t="e">
+      <c r="I78" s="19" t="e">
         <f>VLOOKUP(IN!G73,'Danh sách'!$A:$G,'Danh sách'!$F$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="37"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="20"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="30"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="36" t="e">
+      <c r="C79" s="19" t="e">
         <f>VLOOKUP(IN!A73,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="35"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="17"/>
       <c r="H79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="36" t="e">
+      <c r="I79" s="19" t="e">
         <f>VLOOKUP(IN!G73,'Danh sách'!$A:$G,'Danh sách'!$G$1,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="37"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="20"/>
     </row>
     <row r="80" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="30"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="35"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="17"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="36"/>
-      <c r="J80" s="36"/>
-      <c r="K80" s="36"/>
-      <c r="L80" s="37"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="20"/>
     </row>
     <row r="81" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="4" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="33">
+      <c r="C81" s="16">
         <f t="shared" ref="C81" ca="1" si="26">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="4" t="s">
+        <v>43024</v>
+      </c>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="33">
+      <c r="I81" s="16">
         <f t="shared" ref="I81" ca="1" si="27">TODAY()</f>
-        <v>42907</v>
-      </c>
-      <c r="J81" s="31"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="32"/>
+        <v>43024</v>
+      </c>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="C57:F59"/>
-    <mergeCell ref="I57:L59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="C61:F62"/>
-    <mergeCell ref="I61:L62"/>
-    <mergeCell ref="I43:L44"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="G46:G54"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="C48:F50"/>
-    <mergeCell ref="I48:L50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="I52:L53"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="C39:F41"/>
-    <mergeCell ref="I39:L41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I30:L32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="C34:F35"/>
-    <mergeCell ref="I34:L35"/>
-    <mergeCell ref="G10:G18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:G27"/>
-    <mergeCell ref="C21:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="A1:A9"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C7:F8"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="G73:G81"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="C75:F77"/>
+    <mergeCell ref="I75:L77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="C79:F80"/>
+    <mergeCell ref="I79:L80"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="I3:L5"/>
+    <mergeCell ref="I12:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G64:G72"/>
+    <mergeCell ref="C66:F68"/>
+    <mergeCell ref="I66:L68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="C70:F71"/>
+    <mergeCell ref="I70:L71"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I21:L23"/>
+    <mergeCell ref="I24:L24"/>
     <mergeCell ref="I25:L26"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="G1:G9"/>
@@ -2765,31 +2793,47 @@
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="G37:G45"/>
     <mergeCell ref="C43:F44"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="I3:L5"/>
-    <mergeCell ref="I12:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G64:G72"/>
-    <mergeCell ref="C66:F68"/>
-    <mergeCell ref="I66:L68"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="C70:F71"/>
-    <mergeCell ref="I70:L71"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I21:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="G73:G81"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="C75:F77"/>
-    <mergeCell ref="I75:L77"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="C79:F80"/>
-    <mergeCell ref="I79:L80"/>
+    <mergeCell ref="A1:A9"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C7:F8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="G10:G18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="C21:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="I30:L32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="C34:F35"/>
+    <mergeCell ref="I34:L35"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="C39:F41"/>
+    <mergeCell ref="I39:L41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I43:L44"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="G46:G54"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="C48:F50"/>
+    <mergeCell ref="I48:L50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="C52:F53"/>
+    <mergeCell ref="I52:L53"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="C57:F59"/>
+    <mergeCell ref="I57:L59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="C61:F62"/>
+    <mergeCell ref="I61:L62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.27" bottom="0.28000000000000003" header="0.2" footer="0.2"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
